--- a/medicine/Psychotrope/Une_affaire_de_principe/Une_affaire_de_principe.xlsx
+++ b/medicine/Psychotrope/Une_affaire_de_principe/Une_affaire_de_principe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une affaire de principe est un film dramatique franco-belge réalisé par Antoine Raimbault, sorti en 2024.
-Tiré de faits réels passés en 2012 à Bruxelles, il a pour thème l'implication du député européen José Bové pour découvrir la vraie origine du limogeage suspect du commissaire européen à la santé, John Dalli. Le film est ainsi une enquête, mêlant thriller, complot et espionnage. Le réalisateur qualifie son film de « thriller de bureau »[1].
-Il s'agit de l'adaptation du livre Hold-up à Bruxelles, les lobbies au cœur de l’Europe de José Bové, éditions La Découverte, 2015 (ISBN 9782707178220)[1]. Le 19 mai 2014, l'affaire a contribué à l'adoption par le Parlement européen de la directive sur les produits du tabac, avec notamment la création du paquet de cigarettes neutre.
+Tiré de faits réels passés en 2012 à Bruxelles, il a pour thème l'implication du député européen José Bové pour découvrir la vraie origine du limogeage suspect du commissaire européen à la santé, John Dalli. Le film est ainsi une enquête, mêlant thriller, complot et espionnage. Le réalisateur qualifie son film de « thriller de bureau ».
+Il s'agit de l'adaptation du livre Hold-up à Bruxelles, les lobbies au cœur de l’Europe de José Bové, éditions La Découverte, 2015 (ISBN 9782707178220). Le 19 mai 2014, l'affaire a contribué à l'adoption par le Parlement européen de la directive sur les produits du tabac, avec notamment la création du paquet de cigarettes neutre.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, le commissaire européen à la santé John Dalli est poussé à la démission de façon suspecte. Le député européen José Bové, aidé de son assistant parlementaire et de sa jeune stagiaire, mène une contre-enquête semée d'embûches qui va lui faire découvrir un complot des lobbies des géants du tabac au plus haut niveau des institutions européennes. Pour José Bové, cette enquête est une « affaire de principe », pour le respect de la règle, du droit et de la démocratie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, le commissaire européen à la santé John Dalli est poussé à la démission de façon suspecte. Le député européen José Bové, aidé de son assistant parlementaire et de sa jeune stagiaire, mène une contre-enquête semée d'embûches qui va lui faire découvrir un complot des lobbies des géants du tabac au plus haut niveau des institutions européennes. Pour José Bové, cette enquête est une « affaire de principe », pour le respect de la règle, du droit et de la démocratie.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Une affaire de principe
 Réalisation : Antoine Raimbault
@@ -564,7 +580,7 @@
 Genre : drame
 Durée : 95 minutes
 Dates de sortie :
-France : 20 mars 2024 (Les Rencontres du Sud)[2] ; 1er mai 2024 (sortie nationale)</t>
+France : 20 mars 2024 (Les Rencontres du Sud) ; 1er mai 2024 (sortie nationale)</t>
         </is>
       </c>
     </row>
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bouli Lanners : José Bové
 Thomas VDB : Fabrice (assistant parlementaire)
@@ -638,9 +656,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu du 31 juillet au 20 octobre 2023 et se déroule à Strasbourg et à Bruxelles[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu du 31 juillet au 20 octobre 2023 et se déroule à Strasbourg et à Bruxelles.
 </t>
         </is>
       </c>
@@ -671,9 +691,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Accueil critique
-« Après Une intime conviction, son excellent premier film, ce deuxième long-métrage d'Antoine Raimbault, est une nouvelle réussite »[1].
-Box-office</t>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Après Une intime conviction, son excellent premier film, ce deuxième long-métrage d'Antoine Raimbault, est une nouvelle réussite ».
+</t>
         </is>
       </c>
     </row>
@@ -703,10 +728,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nominations et sélections
-Les Rencontres du Sud (Avignon) 2024[2]
-Festival « Cycle écologie et mode de vie » de Dinan 2024[4]
-Festival du cinéma européen de Meyzieu 2024[5]</t>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Rencontres du Sud (Avignon) 2024
+Festival « Cycle écologie et mode de vie » de Dinan 2024
+Festival du cinéma européen de Meyzieu 2024</t>
         </is>
       </c>
     </row>
